--- a/data/steel/steel_IEAGHG_var.xlsx
+++ b/data/steel/steel_IEAGHG_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C42E3C-FC19-F348-B78E-49916E4E551C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="555" windowWidth="17445" windowHeight="16185" activeTab="2"/>
+    <workbookView xWindow="3100" yWindow="560" windowWidth="23380" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -20,17 +21,17 @@
     <sheet name="Forming" sheetId="13" r:id="rId6"/>
     <sheet name="Reference Values" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -101,13 +102,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Tanzer - TBM</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -140,28 +141,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-this is supplementary natural gas demand only.
-Heat export should be 1.6742 GJ</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this is supplementary natural gas demand only.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Heat export should be 1.6742 GJ</t>
         </r>
       </text>
     </comment>
@@ -170,12 +199,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,12 +341,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -639,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -677,7 +706,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t>Electricity Demand</t>
   </si>
@@ -721,9 +750,6 @@
     <t>Scrap Fraction of Steel</t>
   </si>
   <si>
-    <t>IEAGHG 2013</t>
-  </si>
-  <si>
     <t>mj biomass / mj energy use</t>
   </si>
   <si>
@@ -1025,17 +1051,27 @@
   </si>
   <si>
     <t>O2 demand</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>CO2 not calcinated</t>
+  </si>
+  <si>
+    <t>% CO2 in CaCO3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,19 +1163,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1242,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1290,6 +1313,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,6 +1407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1418,6 +1459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1593,29 +1651,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1627,31 +1685,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1685,19 +1743,19 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
       <c r="D5">
-        <f>35*3.6/1000</f>
+        <f>35*'Reference Values'!B18</f>
         <v>0.126</v>
       </c>
       <c r="E5">
@@ -1708,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1719,25 +1777,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1745,19 +1803,19 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1766,45 +1824,45 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1845,9 +1903,9 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>9.4E-2</v>
@@ -1866,14 +1924,14 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <f>'Reference Values'!F4*4.2/1000</f>
         <v>7.2786000000000003E-2</v>
       </c>
       <c r="I5">
-        <f>32*3.6/1000</f>
+        <f>32*'Reference Values'!B18</f>
         <v>0.1152</v>
       </c>
       <c r="J5">
@@ -1886,48 +1944,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -1939,19 +1999,22 @@
         <v>0</v>
       </c>
       <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1965,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1974,30 +2037,33 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2053,13 +2119,17 @@
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="45">
+        <f>O5</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -2077,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <f>0.1253+0.3518</f>
@@ -2103,13 +2173,17 @@
       <c r="N5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="45">
+        <f>3/42.6</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.95</v>
@@ -2127,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <f>0.1253+0.3526</f>
@@ -2153,7 +2227,11 @@
       <c r="N6">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="45">
+        <f>O5</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="P6">
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
@@ -2165,30 +2243,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -2200,54 +2278,54 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2284,9 +2362,9 @@
         <v>7.4236530739716242E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <f>((900.8+116.9+73.1+5)-1000)/(900.8+116.9+73.1+5)</f>
@@ -2327,36 +2405,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -2365,47 +2443,47 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2493,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2452,9 +2530,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2490,24 +2568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2516,32 +2594,32 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2562,9 +2640,9 @@
         <v>6.8657369929508343E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <f>((1086.3-1052.6)+(1052.6-1000))/1000</f>
@@ -2590,72 +2668,72 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="39">
         <v>12</v>
@@ -2665,7 +2743,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="19">
         <v>17.329999999999998</v>
@@ -2683,12 +2761,12 @@
         <v>34.468724082518165</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="39">
         <v>16.042459999999998</v>
@@ -2698,7 +2776,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="19">
         <v>3.2</v>
@@ -2716,12 +2794,12 @@
         <v>2.3682220828775362</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="39">
         <v>28.010100000000001</v>
@@ -2731,7 +2809,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="19">
         <v>7.47</v>
@@ -2749,12 +2827,12 @@
         <v>3.9112454453016037</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="39">
         <v>44.009500000000003</v>
@@ -2764,7 +2842,7 @@
         <v>1.963482644775587E-3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="27"/>
@@ -2776,12 +2854,12 @@
         <v>2.77</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="39">
         <v>2.0158800000000001</v>
@@ -2795,9 +2873,9 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="39">
         <v>18.015280000000001</v>
@@ -2807,15 +2885,15 @@
         <v>8.0375122691175155E-4</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="39">
         <f>(78.12+92.15+106.7)/3</f>
@@ -2827,18 +2905,18 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="39">
         <v>28.013400000000001</v>
@@ -2848,7 +2926,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12">
         <v>0.57879999999999998</v>
@@ -2858,9 +2936,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="39">
         <v>31.998799999999999</v>
@@ -2870,7 +2948,7 @@
         <v>1.4276255911483892E-3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="12">
         <v>0.94240000000000002</v>
@@ -2880,12 +2958,12 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="42"/>
       <c r="C13" s="31"/>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="12">
         <v>0.99909999999999999</v>
@@ -2895,11 +2973,11 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="E14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="12">
         <v>0.98729999999999996</v>
@@ -2909,14 +2987,14 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="E15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -2924,25 +3002,25 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="40"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="B17" s="30">
         <v>3.6</v>
       </c>
       <c r="C17" s="39"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="29">
         <f>B17/1000</f>
@@ -2950,9 +3028,9 @@
       </c>
       <c r="C18" s="39"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="31">
         <f>1/0.022414</f>

--- a/data/steel/steel_IEAGHG_var.xlsx
+++ b/data/steel/steel_IEAGHG_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C42E3C-FC19-F348-B78E-49916E4E551C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70E53D-A89E-624F-BE8F-3D2EBA475D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="560" windowWidth="23380" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="1200" windowWidth="23380" windowHeight="16180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -105,6 +105,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Tanzer - TBM</author>
+    <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
@@ -141,7 +142,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{6E58F973-63C5-AB4D-8868-6C45EC5AFD6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S.E. Tanzer: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Energy out from page E-12 (Steel Mill Gas Network); total energy from LHV of fuels in
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -706,7 +732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>Electricity Demand</t>
   </si>
@@ -1023,9 +1049,6 @@
     <t>GJ electricity / t steel</t>
   </si>
   <si>
-    <t>GJ heat / GJ steel</t>
-  </si>
-  <si>
     <t>t lost / t stee out</t>
   </si>
   <si>
@@ -1060,6 +1083,21 @@
   </si>
   <si>
     <t>% CO2 in CaCO3</t>
+  </si>
+  <si>
+    <t>BFG Export</t>
+  </si>
+  <si>
+    <t>% Energy BFG</t>
+  </si>
+  <si>
+    <t>heat import</t>
+  </si>
+  <si>
+    <t>GJ heat / t steel</t>
+  </si>
+  <si>
+    <t>ieaghg-reference-old</t>
   </si>
 </sst>
 </file>
@@ -1069,11 +1107,18 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1265,13 +1310,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1284,7 +1329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,21 +1344,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,7 +1701,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1791,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1781,7 +1827,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1905,7 +1951,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>9.4E-2</v>
@@ -1945,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1962,9 +2008,10 @@
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1992,8 +2039,8 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
+      <c r="J1" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -2008,13 +2055,16 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2052,18 +2102,21 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2154,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.6824780000000001</v>
+        <v>0.14903799999999998</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -2126,10 +2179,14 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="45">
+        <f>Q5</f>
+        <v>0.33610350491808161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -2157,8 +2214,8 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J5">
-        <f>(8.6*'Reference Values'!F4+479.2*'Reference Values'!F5+8*'Reference Values'!F7)/1000</f>
-        <v>1.6824780000000001</v>
+        <f>(8.6*'Reference Values'!F4+8*'Reference Values'!F7)/1000</f>
+        <v>0.14903799999999998</v>
       </c>
       <c r="K5">
         <f>(98.8+4.9)*3.6/1000</f>
@@ -2180,10 +2237,14 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="45">
+        <f>5.1489/(29.01*0.3548+33.07*0.152)</f>
+        <v>0.33610350491808161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>0.95</v>
@@ -2234,6 +2295,7 @@
       <c r="P6">
         <v>9.4799999999999995E-2</v>
       </c>
+      <c r="Q6" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2309,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2426,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <f>((900.8+116.9+73.1+5)-1000)/(900.8+116.9+73.1+5)</f>
@@ -2406,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2428,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -2459,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>102</v>
@@ -2471,7 +2533,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -2514,8 +2576,8 @@
         <v>0.09</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5597E-2</v>
+        <f>F5</f>
+        <v>0.25147259999999999</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
@@ -2532,7 +2594,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2548,8 +2610,8 @@
         <v>0.09</v>
       </c>
       <c r="F5">
-        <f>0.9*'Reference Values'!F4/1000</f>
-        <v>1.5597E-2</v>
+        <f>0.2322*(1.083)</f>
+        <v>0.25147259999999999</v>
       </c>
       <c r="G5">
         <f>2.1*'Reference Values'!C12</f>
@@ -2559,6 +2621,38 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <f>25*'Reference Values'!B18/1000</f>
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="F6">
+        <f>0.9*'Reference Values'!F4/1000</f>
+        <v>1.5597E-2</v>
+      </c>
+      <c r="G6">
+        <f>2.1*'Reference Values'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
@@ -2572,7 +2666,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2605,10 +2699,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2642,7 +2736,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <f>((1086.3-1052.6)+(1052.6-1000))/1000</f>
@@ -2671,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3020,7 +3114,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="29">
         <f>B17/1000</f>

--- a/data/steel/steel_IEAGHG_var.xlsx
+++ b/data/steel/steel_IEAGHG_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70E53D-A89E-624F-BE8F-3D2EBA475D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="1200" windowWidth="23380" windowHeight="16180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="1200" windowWidth="23385" windowHeight="16185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -21,17 +20,17 @@
     <sheet name="Forming" sheetId="13" r:id="rId6"/>
     <sheet name="Reference Values" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,14 +101,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Tanzer - TBM</author>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{6E58F973-63C5-AB4D-8868-6C45EC5AFD6C}">
+    <comment ref="Q5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="J6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,12 +224,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,12 +366,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -694,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
   <si>
     <t>Electricity Demand</t>
   </si>
@@ -1103,7 +1102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1453,23 +1452,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1505,23 +1487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1697,24 +1662,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1754,7 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1823,25 +1788,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1914,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1990,28 +1955,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2063,8 +2029,11 @@
       <c r="Q1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2107,8 +2076,11 @@
       <c r="Q2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2183,8 +2155,12 @@
         <f>Q5</f>
         <v>0.33610350491808161</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <f t="shared" ref="R4" si="1">R5</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2241,8 +2217,11 @@
         <f>5.1489/(29.01*0.3548+33.07*0.152)</f>
         <v>0.33610350491808161</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2296,6 +2275,9 @@
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="Q6" s="45"/>
+      <c r="R6">
+        <v>4.7E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,25 +2287,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2352,7 +2334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2381,13 +2363,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2424,7 +2406,7 @@
         <v>7.4236530739716242E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2467,25 +2449,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2498,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2537,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2624,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2662,19 +2644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2708,12 +2690,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2716,7 @@
         <v>6.8657369929508343E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2762,24 +2744,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -2787,7 +2769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2798,7 +2780,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="41" t="s">
         <v>78</v>
@@ -2825,7 +2807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -2858,7 +2840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -2891,7 +2873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -2924,7 +2906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -2951,7 +2933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2967,7 +2949,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
@@ -2985,7 +2967,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -3008,7 +2990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>86</v>
       </c>
@@ -3030,7 +3012,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -3052,7 +3034,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="42"/>
       <c r="C13" s="31"/>
@@ -3067,7 +3049,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="E14" s="9" t="s">
@@ -3081,7 +3063,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -3096,14 +3078,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
@@ -3112,7 +3094,7 @@
       </c>
       <c r="C17" s="39"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>109</v>
       </c>
@@ -3122,7 +3104,7 @@
       </c>
       <c r="C18" s="39"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>97</v>
       </c>

--- a/data/steel/steel_IEAGHG_var.xlsx
+++ b/data/steel/steel_IEAGHG_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFBD87-92B0-494D-884C-02230B708A79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1200" windowWidth="23385" windowHeight="16185" activeTab="2"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -20,17 +21,17 @@
     <sheet name="Forming" sheetId="13" r:id="rId6"/>
     <sheet name="Reference Values" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -101,14 +102,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Tanzer - TBM</author>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="1" shapeId="0">
+    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="2" shapeId="0">
+    <comment ref="J6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +225,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -366,12 +367,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1452,6 +1453,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1487,6 +1505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,24 +1697,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1788,25 +1823,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1955,29 +1990,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2080,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2195,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2221,7 +2256,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2287,25 +2322,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2363,13 +2398,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2441,7 @@
         <v>7.4236530739716242E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2449,25 +2484,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2533,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2572,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2606,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2644,19 +2679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2690,12 +2725,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2751,7 @@
         <v>6.8657369929508343E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2744,24 +2779,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2780,7 +2815,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="41" t="s">
         <v>78</v>
@@ -2807,7 +2842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -2840,7 +2875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -2873,7 +2908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -2906,7 +2941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -2933,7 +2968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2949,7 +2984,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
@@ -2967,7 +3002,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -2990,7 +3025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>86</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -3034,7 +3069,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="42"/>
       <c r="C13" s="31"/>
@@ -3049,7 +3084,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="E14" s="9" t="s">
@@ -3063,7 +3098,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -3078,14 +3113,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
@@ -3094,7 +3129,7 @@
       </c>
       <c r="C17" s="39"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>109</v>
       </c>
@@ -3104,7 +3139,7 @@
       </c>
       <c r="C18" s="39"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>97</v>
       </c>

--- a/data/steel/steel_IEAGHG_var.xlsx
+++ b/data/steel/steel_IEAGHG_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFBD87-92B0-494D-884C-02230B708A79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,14 +101,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Tanzer - TBM</author>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="Q5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="J6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,12 +224,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,12 +366,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -694,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1103,7 +1102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1453,23 +1452,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1505,23 +1487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1697,24 +1662,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1754,7 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1823,25 +1788,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1914,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1990,29 +1955,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2160,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2256,7 +2221,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2322,25 +2287,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2369,7 +2334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2398,13 +2363,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>7.4236530739716242E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2484,25 +2449,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2498,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2537,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2609,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2641,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2679,19 +2644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2708,7 +2673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2725,12 +2690,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2716,7 @@
         <v>6.8657369929508343E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2779,24 +2744,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -2804,7 +2769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2815,7 +2780,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="41" t="s">
         <v>78</v>
@@ -2842,7 +2807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -2875,7 +2840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -2941,7 +2906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -2968,7 +2933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2984,7 +2949,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
@@ -3002,7 +2967,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -3025,7 +2990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>86</v>
       </c>
@@ -3047,7 +3012,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3034,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="42"/>
       <c r="C13" s="31"/>
@@ -3084,7 +3049,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="E14" s="9" t="s">
@@ -3098,7 +3063,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -3113,14 +3078,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
@@ -3129,7 +3094,7 @@
       </c>
       <c r="C17" s="39"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>109</v>
       </c>
@@ -3139,7 +3104,7 @@
       </c>
       <c r="C18" s="39"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>97</v>
       </c>
